--- a/data/trans_bre/P9_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-3,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 3,41</t>
+          <t>-7,6; 3,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 8,96</t>
+          <t>-3,94; 8,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 6,41</t>
+          <t>-13,04; 7,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 17,14</t>
+          <t>-6,91; 15,6</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>-5,87%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -1,21</t>
+          <t>-12,88; -0,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 3,47</t>
+          <t>-10,37; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,28; -3,12</t>
+          <t>-23,16; -0,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 7,29</t>
+          <t>-18,12; 6,53</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-12,79%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 7,02</t>
+          <t>-16,22; 7,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 13,1</t>
+          <t>-19,08; 7,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 18,83</t>
+          <t>-32,85; 21,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 39,5</t>
+          <t>-35,58; 21,34</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-1,38%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,4</t>
+          <t>-8,09; 0,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,98</t>
+          <t>-4,98; 3,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -0,79</t>
+          <t>-14,76; 0,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 7,96</t>
+          <t>-8,97; 7,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,58%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.994975483799377</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.440359185719788</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.035834193969313</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.0633719290284764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 3,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 8,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,04; 7,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,91; 15,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.601435966540149</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.681435005009378</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1304096179227201</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.04524534572088679</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.708454484886588</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.719074584014855</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.07031533773824955</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1941136431010586</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-7,58</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-14,39%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,88; -0,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 3,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-23,16; -0,37</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-18,12; 6,53</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.578708257890049</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.02199714603012</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1439038242953662</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.07441539573456021</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,62%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.88111259130218</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.41660360777927</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2315703219512224</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1990447664497541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,22; 7,71</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,08; 7,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-32,85; 21,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-35,58; 21,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.1366646952649211</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.460244276209954</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.003671846765220393</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.04806114110080383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,98%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,38%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.683658545175938</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.853297751690505</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.08618415258168845</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1063722572100956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; 0,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 3,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; 0,06</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 7,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.2240111800596</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.41781829811301</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3284712054384799</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3500050483477867</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.711217138090401</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.837475157828806</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2162644748972258</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2660483770748571</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.220451763989702</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.3036479721698515</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.07981404691144145</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.005715110144841468</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.087486506418372</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.640584334589456</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1475608404902984</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.0824936388345275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.08290541587454099</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.46172201688101</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.000637391821196355</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.08707659825959944</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
